--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb5</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4021426666666666</v>
+        <v>0.455435</v>
       </c>
       <c r="H2">
-        <v>1.206428</v>
+        <v>1.366305</v>
       </c>
       <c r="I2">
-        <v>0.1795998161169229</v>
+        <v>0.08213513046080446</v>
       </c>
       <c r="J2">
-        <v>0.1934923663387552</v>
+        <v>0.1030206357201239</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N2">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O2">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P2">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q2">
-        <v>2.165057833560888</v>
+        <v>1.726251524348334</v>
       </c>
       <c r="R2">
-        <v>19.48552050204799</v>
+        <v>15.536263719135</v>
       </c>
       <c r="S2">
-        <v>0.006642484042148547</v>
+        <v>0.00185413248547462</v>
       </c>
       <c r="T2">
-        <v>0.00739589916250075</v>
+        <v>0.002353131908265358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4021426666666666</v>
+        <v>0.455435</v>
       </c>
       <c r="H3">
-        <v>1.206428</v>
+        <v>1.366305</v>
       </c>
       <c r="I3">
-        <v>0.1795998161169229</v>
+        <v>0.08213513046080446</v>
       </c>
       <c r="J3">
-        <v>0.1934923663387552</v>
+        <v>0.1030206357201239</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>106.106731</v>
       </c>
       <c r="O3">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P3">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q3">
-        <v>14.22334791854089</v>
+        <v>16.10823967766167</v>
       </c>
       <c r="R3">
-        <v>128.010131266868</v>
+        <v>144.974157098955</v>
       </c>
       <c r="S3">
-        <v>0.04363780039050748</v>
+        <v>0.01730154038904531</v>
       </c>
       <c r="T3">
-        <v>0.04858736119103071</v>
+        <v>0.02195787359886675</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4021426666666666</v>
+        <v>0.455435</v>
       </c>
       <c r="H4">
-        <v>1.206428</v>
+        <v>1.366305</v>
       </c>
       <c r="I4">
-        <v>0.1795998161169229</v>
+        <v>0.08213513046080446</v>
       </c>
       <c r="J4">
-        <v>0.1934923663387552</v>
+        <v>0.1030206357201239</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N4">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O4">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P4">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q4">
-        <v>16.18700224892578</v>
+        <v>22.51981337757</v>
       </c>
       <c r="R4">
-        <v>145.683020240332</v>
+        <v>202.67832039813</v>
       </c>
       <c r="S4">
-        <v>0.04966237042817003</v>
+        <v>0.02418808439050679</v>
       </c>
       <c r="T4">
-        <v>0.0552952602560864</v>
+        <v>0.03069778110518729</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4021426666666666</v>
+        <v>0.455435</v>
       </c>
       <c r="H5">
-        <v>1.206428</v>
+        <v>1.366305</v>
       </c>
       <c r="I5">
-        <v>0.1795998161169229</v>
+        <v>0.08213513046080446</v>
       </c>
       <c r="J5">
-        <v>0.1934923663387552</v>
+        <v>0.1030206357201239</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N5">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O5">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P5">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q5">
-        <v>5.689348564149999</v>
+        <v>2.683598362475</v>
       </c>
       <c r="R5">
-        <v>34.1360913849</v>
+        <v>16.10159017485</v>
       </c>
       <c r="S5">
-        <v>0.01745514898575771</v>
+        <v>0.002882399715018213</v>
       </c>
       <c r="T5">
-        <v>0.01295665105061452</v>
+        <v>0.002438756595486076</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4021426666666666</v>
+        <v>0.455435</v>
       </c>
       <c r="H6">
-        <v>1.206428</v>
+        <v>1.366305</v>
       </c>
       <c r="I6">
-        <v>0.1795998161169229</v>
+        <v>0.08213513046080446</v>
       </c>
       <c r="J6">
-        <v>0.1934923663387552</v>
+        <v>0.1030206357201239</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N6">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O6">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P6">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q6">
-        <v>20.27418554182755</v>
+        <v>33.43230362153834</v>
       </c>
       <c r="R6">
-        <v>182.467669876448</v>
+        <v>300.890732593845</v>
       </c>
       <c r="S6">
-        <v>0.06220201227033918</v>
+        <v>0.03590897348075953</v>
       </c>
       <c r="T6">
-        <v>0.06925719467852277</v>
+        <v>0.04557309251231844</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>3.65289</v>
       </c>
       <c r="I7">
-        <v>0.5438023423655177</v>
+        <v>0.2195926946830817</v>
       </c>
       <c r="J7">
-        <v>0.5858669809347723</v>
+        <v>0.2754312177849627</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N7">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O7">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P7">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q7">
-        <v>6.555482888026665</v>
+        <v>4.615226417803334</v>
       </c>
       <c r="R7">
-        <v>58.99934599223999</v>
+        <v>41.53703776023001</v>
       </c>
       <c r="S7">
-        <v>0.02011248373937277</v>
+        <v>0.004957123054417122</v>
       </c>
       <c r="T7">
-        <v>0.02239371607067091</v>
+        <v>0.006291224884914745</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>3.65289</v>
       </c>
       <c r="I8">
-        <v>0.5438023423655177</v>
+        <v>0.2195926946830817</v>
       </c>
       <c r="J8">
-        <v>0.5858669809347723</v>
+        <v>0.2754312177849627</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>106.106731</v>
       </c>
       <c r="O8">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P8">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q8">
         <v>43.06624628917667</v>
@@ -948,10 +948,10 @@
         <v>387.59621660259</v>
       </c>
       <c r="S8">
-        <v>0.1321289663937515</v>
+        <v>0.0462566000063966</v>
       </c>
       <c r="T8">
-        <v>0.1471155227009852</v>
+        <v>0.05870555761017075</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>3.65289</v>
       </c>
       <c r="I9">
-        <v>0.5438023423655177</v>
+        <v>0.2195926946830817</v>
       </c>
       <c r="J9">
-        <v>0.5858669809347723</v>
+        <v>0.2754312177849627</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N9">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O9">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P9">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q9">
-        <v>49.01190841482334</v>
+        <v>60.20793387185999</v>
       </c>
       <c r="R9">
-        <v>441.1071757334101</v>
+        <v>541.87140484674</v>
       </c>
       <c r="S9">
-        <v>0.1503704956394895</v>
+        <v>0.06466814626985799</v>
       </c>
       <c r="T9">
-        <v>0.1674260736959483</v>
+        <v>0.08207217101696003</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>3.65289</v>
       </c>
       <c r="I10">
-        <v>0.5438023423655177</v>
+        <v>0.2195926946830817</v>
       </c>
       <c r="J10">
-        <v>0.5858669809347723</v>
+        <v>0.2754312177849627</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N10">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O10">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P10">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q10">
-        <v>17.226526967625</v>
+        <v>7.17474474755</v>
       </c>
       <c r="R10">
-        <v>103.35916180575</v>
+        <v>43.0484684853</v>
       </c>
       <c r="S10">
-        <v>0.05285167384923468</v>
+        <v>0.007706250870042106</v>
       </c>
       <c r="T10">
-        <v>0.03923087084871977</v>
+        <v>0.006520147097525905</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>3.65289</v>
       </c>
       <c r="I11">
-        <v>0.5438023423655177</v>
+        <v>0.2195926946830817</v>
       </c>
       <c r="J11">
-        <v>0.5858669809347723</v>
+        <v>0.2754312177849627</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N11">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O11">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P11">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q11">
-        <v>61.38730999602667</v>
+        <v>89.38306423242334</v>
       </c>
       <c r="R11">
-        <v>552.4857899642401</v>
+        <v>804.44757809181</v>
       </c>
       <c r="S11">
-        <v>0.1883387227436692</v>
+        <v>0.09600457448236789</v>
       </c>
       <c r="T11">
-        <v>0.2097007976184481</v>
+        <v>0.1218421171753912</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.482296</v>
+        <v>0.106879</v>
       </c>
       <c r="H12">
-        <v>0.964592</v>
+        <v>0.320637</v>
       </c>
       <c r="I12">
-        <v>0.2153968730349283</v>
+        <v>0.01927502411654862</v>
       </c>
       <c r="J12">
-        <v>0.1547056174354645</v>
+        <v>0.02417632049607765</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N12">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O12">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P12">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q12">
-        <v>2.596587777045333</v>
+        <v>0.4051072857176667</v>
       </c>
       <c r="R12">
-        <v>15.579526662272</v>
+        <v>3.645965571459</v>
       </c>
       <c r="S12">
-        <v>0.007966435171246214</v>
+        <v>0.0004351176916904541</v>
       </c>
       <c r="T12">
-        <v>0.005913345151931921</v>
+        <v>0.0005522201526529431</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.482296</v>
+        <v>0.106879</v>
       </c>
       <c r="H13">
-        <v>0.964592</v>
+        <v>0.320637</v>
       </c>
       <c r="I13">
-        <v>0.2153968730349283</v>
+        <v>0.01927502411654862</v>
       </c>
       <c r="J13">
-        <v>0.1547056174354645</v>
+        <v>0.02417632049607765</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>106.106731</v>
       </c>
       <c r="O13">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P13">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q13">
-        <v>17.05828397812533</v>
+        <v>3.780193767516333</v>
       </c>
       <c r="R13">
-        <v>102.349703868752</v>
+        <v>34.021743907647</v>
       </c>
       <c r="S13">
-        <v>0.05233549762722731</v>
+        <v>0.004060231065334842</v>
       </c>
       <c r="T13">
-        <v>0.03884772228925282</v>
+        <v>0.005152953928383367</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.482296</v>
+        <v>0.106879</v>
       </c>
       <c r="H14">
-        <v>0.964592</v>
+        <v>0.320637</v>
       </c>
       <c r="I14">
-        <v>0.2153968730349283</v>
+        <v>0.01927502411654862</v>
       </c>
       <c r="J14">
-        <v>0.1547056174354645</v>
+        <v>0.02417632049607765</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N14">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O14">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P14">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q14">
-        <v>19.41332537867467</v>
+        <v>5.284826888537999</v>
       </c>
       <c r="R14">
-        <v>116.479952272048</v>
+        <v>47.56344199684199</v>
       </c>
       <c r="S14">
-        <v>0.05956085885280687</v>
+        <v>0.00567632762429979</v>
       </c>
       <c r="T14">
-        <v>0.04421098124458227</v>
+        <v>0.007203987718865067</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.482296</v>
+        <v>0.106879</v>
       </c>
       <c r="H15">
-        <v>0.964592</v>
+        <v>0.320637</v>
       </c>
       <c r="I15">
-        <v>0.2153968730349283</v>
+        <v>0.01927502411654862</v>
       </c>
       <c r="J15">
-        <v>0.1547056174354645</v>
+        <v>0.02417632049607765</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N15">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O15">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P15">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q15">
-        <v>6.823324860900001</v>
+        <v>0.629772216415</v>
       </c>
       <c r="R15">
-        <v>27.2932994436</v>
+        <v>3.77863329849</v>
       </c>
       <c r="S15">
-        <v>0.02093423362662753</v>
+        <v>0.0006764258327564452</v>
       </c>
       <c r="T15">
-        <v>0.0103594097204428</v>
+        <v>0.0005723140869036335</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.482296</v>
+        <v>0.106879</v>
       </c>
       <c r="H16">
-        <v>0.964592</v>
+        <v>0.320637</v>
       </c>
       <c r="I16">
-        <v>0.2153968730349283</v>
+        <v>0.01927502411654862</v>
       </c>
       <c r="J16">
-        <v>0.1547056174354645</v>
+        <v>0.02417632049607765</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N16">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O16">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P16">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q16">
-        <v>24.31514833064533</v>
+        <v>7.845710537763667</v>
       </c>
       <c r="R16">
-        <v>145.890889983872</v>
+        <v>70.611394839873</v>
       </c>
       <c r="S16">
-        <v>0.07459984775702033</v>
+        <v>0.008426921902467088</v>
       </c>
       <c r="T16">
-        <v>0.05537415902925467</v>
+        <v>0.01069484460927263</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1370353333333333</v>
+        <v>3.372403</v>
       </c>
       <c r="H17">
-        <v>0.411106</v>
+        <v>6.744806000000001</v>
       </c>
       <c r="I17">
-        <v>0.06120096848263116</v>
+        <v>0.6081938374771556</v>
       </c>
       <c r="J17">
-        <v>0.06593503529100808</v>
+        <v>0.5085644873793963</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N17">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O17">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P17">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q17">
-        <v>0.737771558455111</v>
+        <v>12.78253937327367</v>
       </c>
       <c r="R17">
-        <v>6.639944026095999</v>
+        <v>76.69523623964201</v>
       </c>
       <c r="S17">
-        <v>0.002263512654407491</v>
+        <v>0.01372947172793498</v>
       </c>
       <c r="T17">
-        <v>0.002520248635723834</v>
+        <v>0.01161630691072611</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1370353333333333</v>
+        <v>3.372403</v>
       </c>
       <c r="H18">
-        <v>0.411106</v>
+        <v>6.744806000000001</v>
       </c>
       <c r="I18">
-        <v>0.06120096848263116</v>
+        <v>0.6081938374771556</v>
       </c>
       <c r="J18">
-        <v>0.06593503529100808</v>
+        <v>0.5085644873793963</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>106.106731</v>
       </c>
       <c r="O18">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P18">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q18">
-        <v>4.846790417165111</v>
+        <v>119.2782193148643</v>
       </c>
       <c r="R18">
-        <v>43.621113754486</v>
+        <v>715.669315889186</v>
       </c>
       <c r="S18">
-        <v>0.01487014688596416</v>
+        <v>0.1281143669516782</v>
       </c>
       <c r="T18">
-        <v>0.01655677397225518</v>
+        <v>0.1083957078374726</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1370353333333333</v>
+        <v>3.372403</v>
       </c>
       <c r="H19">
-        <v>0.411106</v>
+        <v>6.744806000000001</v>
       </c>
       <c r="I19">
-        <v>0.06120096848263116</v>
+        <v>0.6081938374771556</v>
       </c>
       <c r="J19">
-        <v>0.06593503529100808</v>
+        <v>0.5085644873793963</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N19">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O19">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P19">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q19">
-        <v>5.515931117768223</v>
+        <v>166.754610853266</v>
       </c>
       <c r="R19">
-        <v>49.64338005991401</v>
+        <v>1000.527665119596</v>
       </c>
       <c r="S19">
-        <v>0.0169230973230423</v>
+        <v>0.1791078164014585</v>
       </c>
       <c r="T19">
-        <v>0.01884257764478167</v>
+        <v>0.1515405258598584</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1370353333333333</v>
+        <v>3.372403</v>
       </c>
       <c r="H20">
-        <v>0.411106</v>
+        <v>6.744806000000001</v>
       </c>
       <c r="I20">
-        <v>0.06120096848263116</v>
+        <v>0.6081938374771556</v>
       </c>
       <c r="J20">
-        <v>0.06593503529100808</v>
+        <v>0.5085644873793963</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N20">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O20">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P20">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q20">
-        <v>1.938719368925</v>
+        <v>19.871496851155</v>
       </c>
       <c r="R20">
-        <v>11.63231621355</v>
+        <v>79.48598740462</v>
       </c>
       <c r="S20">
-        <v>0.005948068578430632</v>
+        <v>0.02134358019503676</v>
       </c>
       <c r="T20">
-        <v>0.00441514701815105</v>
+        <v>0.01203899577164254</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.372403</v>
+      </c>
+      <c r="H21">
+        <v>6.744806000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.6081938374771556</v>
+      </c>
+      <c r="J21">
+        <v>0.5085644873793963</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>73.40740966666667</v>
+      </c>
+      <c r="N21">
+        <v>220.222229</v>
+      </c>
+      <c r="O21">
+        <v>0.4371938448176639</v>
+      </c>
+      <c r="P21">
+        <v>0.4423685817288764</v>
+      </c>
+      <c r="Q21">
+        <v>247.5593685820957</v>
+      </c>
+      <c r="R21">
+        <v>1485.356211492574</v>
+      </c>
+      <c r="S21">
+        <v>0.2658986022010471</v>
+      </c>
+      <c r="T21">
+        <v>0.2249729509996966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3926006666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.177802</v>
+      </c>
+      <c r="I22">
+        <v>0.0708033132624095</v>
+      </c>
+      <c r="J22">
+        <v>0.08880733861943957</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.790335666666667</v>
+      </c>
+      <c r="N22">
+        <v>11.371007</v>
+      </c>
+      <c r="O22">
+        <v>0.02257417106507704</v>
+      </c>
+      <c r="P22">
+        <v>0.02284136466268864</v>
+      </c>
+      <c r="Q22">
+        <v>1.488088309623778</v>
+      </c>
+      <c r="R22">
+        <v>13.392794786614</v>
+      </c>
+      <c r="S22">
+        <v>0.00159832610555987</v>
+      </c>
+      <c r="T22">
+        <v>0.002028480806129491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3926006666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.177802</v>
+      </c>
+      <c r="I23">
+        <v>0.0708033132624095</v>
+      </c>
+      <c r="J23">
+        <v>0.08880733861943957</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>35.36891033333333</v>
+      </c>
+      <c r="N23">
+        <v>106.106731</v>
+      </c>
+      <c r="O23">
+        <v>0.2106472625291773</v>
+      </c>
+      <c r="P23">
+        <v>0.2131405368000222</v>
+      </c>
+      <c r="Q23">
+        <v>13.88585777614022</v>
+      </c>
+      <c r="R23">
+        <v>124.972719985262</v>
+      </c>
+      <c r="S23">
+        <v>0.01491452411672236</v>
+      </c>
+      <c r="T23">
+        <v>0.01892844382512869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3926006666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.177802</v>
+      </c>
+      <c r="I24">
+        <v>0.0708033132624095</v>
+      </c>
+      <c r="J24">
+        <v>0.08880733861943957</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>49.446822</v>
+      </c>
+      <c r="N24">
+        <v>148.340466</v>
+      </c>
+      <c r="O24">
+        <v>0.2944913370783471</v>
+      </c>
+      <c r="P24">
+        <v>0.2979770110192673</v>
+      </c>
+      <c r="Q24">
+        <v>19.412855281748</v>
+      </c>
+      <c r="R24">
+        <v>174.715697535732</v>
+      </c>
+      <c r="S24">
+        <v>0.02085096239222404</v>
+      </c>
+      <c r="T24">
+        <v>0.02646254531839655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.1370353333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.411106</v>
-      </c>
-      <c r="I21">
-        <v>0.06120096848263116</v>
-      </c>
-      <c r="J21">
-        <v>0.06593503529100808</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>50.41540533333333</v>
-      </c>
-      <c r="N21">
-        <v>151.246216</v>
-      </c>
-      <c r="O21">
-        <v>0.3463367258118152</v>
-      </c>
-      <c r="P21">
-        <v>0.3579324393463219</v>
-      </c>
-      <c r="Q21">
-        <v>6.908691874988445</v>
-      </c>
-      <c r="R21">
-        <v>62.178226874896</v>
-      </c>
-      <c r="S21">
-        <v>0.02119614304078657</v>
-      </c>
-      <c r="T21">
-        <v>0.02360028802009635</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3926006666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.177802</v>
+      </c>
+      <c r="I25">
+        <v>0.0708033132624095</v>
+      </c>
+      <c r="J25">
+        <v>0.08880733861943957</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.892385</v>
+      </c>
+      <c r="N25">
+        <v>11.78477</v>
+      </c>
+      <c r="O25">
+        <v>0.03509338450973445</v>
+      </c>
+      <c r="P25">
+        <v>0.02367250578914543</v>
+      </c>
+      <c r="Q25">
+        <v>2.313354279256667</v>
+      </c>
+      <c r="R25">
+        <v>13.88012567554</v>
+      </c>
+      <c r="S25">
+        <v>0.002484727896880917</v>
+      </c>
+      <c r="T25">
+        <v>0.002102292237587282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3926006666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.177802</v>
+      </c>
+      <c r="I26">
+        <v>0.0708033132624095</v>
+      </c>
+      <c r="J26">
+        <v>0.08880733861943957</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>73.40740966666667</v>
+      </c>
+      <c r="N26">
+        <v>220.222229</v>
+      </c>
+      <c r="O26">
+        <v>0.4371938448176639</v>
+      </c>
+      <c r="P26">
+        <v>0.4423685817288764</v>
+      </c>
+      <c r="Q26">
+        <v>28.81979797340644</v>
+      </c>
+      <c r="R26">
+        <v>259.378181760658</v>
+      </c>
+      <c r="S26">
+        <v>0.03095477275102231</v>
+      </c>
+      <c r="T26">
+        <v>0.03928557643219756</v>
       </c>
     </row>
   </sheetData>
